--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3761.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3761.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.280220526739679</v>
+        <v>0.5151125192642212</v>
       </c>
       <c r="B1">
-        <v>2.614012757281397</v>
+        <v>1.614569067955017</v>
       </c>
       <c r="C1">
-        <v>3.869672041964721</v>
+        <v>5.856376171112061</v>
       </c>
       <c r="D1">
-        <v>3.722221293965061</v>
+        <v>1.547787189483643</v>
       </c>
       <c r="E1">
-        <v>1.128211123220201</v>
+        <v>0.9460044503211975</v>
       </c>
     </row>
   </sheetData>
